--- a/cbrunner/Parameters/Parameters_VRI.xlsx
+++ b/cbrunner/Parameters/Parameters_VRI.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A92CB4-F789-4741-80C1-451A8787BC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="22035" windowHeight="13035"/>
+    <workbookView xWindow="15648" yWindow="0" windowWidth="7392" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECIES" sheetId="4" r:id="rId1"/>
-    <sheet name="DAMAGE_AGENT" sheetId="7" r:id="rId2"/>
-    <sheet name="DISTURBANCE" sheetId="8" r:id="rId3"/>
+    <sheet name="LCC" sheetId="9" r:id="rId2"/>
+    <sheet name="DAMAGE_AGENT" sheetId="7" r:id="rId3"/>
+    <sheet name="DISTURBANCE" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="735">
   <si>
     <t>Description</t>
   </si>
@@ -1972,12 +1989,261 @@
   </si>
   <si>
     <t>Windblow</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Snow/Ice</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Rock/Rubble</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Exposed Land</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Snow Cover</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Bedrock</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Talus</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Blockfield</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Rubbly Mine Spoils</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lava Bed</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>River Sediments</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Exposed Soil</t>
+  </si>
+  <si>
+    <t>Pond or Lake Sediments</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Reservoir Margin</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Landing</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Burned Area</t>
+  </si>
+  <si>
+    <t>RZ</t>
+  </si>
+  <si>
+    <t>Road Surface</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mudflat Sediment</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Cutbank</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Moraine</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Gravel Pit</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Tailings</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Railway Surface</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Open Pit Mine</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Ministry of Sustainable Resource Management 2002. VRI - The B.C. Land Cover Classification</t>
+  </si>
+  <si>
+    <t>Treed - Coniferous</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Treed - Broadleaf</t>
+  </si>
+  <si>
+    <t>Treed - Mixed</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Shrub Tall</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Shrub Low</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Herb - Forbs</t>
+  </si>
+  <si>
+    <t>Herb - Graminoids</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bryoids</t>
+  </si>
+  <si>
+    <t>Bryoid - Moss</t>
+  </si>
+  <si>
+    <t>Bryoid - Lichens</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Reservoir</t>
+  </si>
+  <si>
+    <t>River/Stream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2015,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2033,6 +2299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2042,6 +2309,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2090,7 +2360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2123,9 +2393,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2158,6 +2445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2333,19 +2637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2353,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2369,7 +2673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2377,7 +2681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2385,7 +2689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2393,7 +2697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2401,7 +2705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2409,7 +2713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +2721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2425,7 +2729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2441,7 +2745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2449,7 +2753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -2457,7 +2761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2465,7 +2769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2473,7 +2777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2481,7 +2785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2489,7 +2793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2497,7 +2801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -2505,7 +2809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -2513,7 +2817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -2521,7 +2825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -2529,7 +2833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -2537,7 +2841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -2545,7 +2849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -2553,7 +2857,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -2561,7 +2865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -2569,7 +2873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -2577,7 +2881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -2585,7 +2889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -2593,7 +2897,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -2609,7 +2913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
@@ -2617,7 +2921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
@@ -2625,7 +2929,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2633,7 +2937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -2641,7 +2945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -2649,7 +2953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -2657,7 +2961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -2673,7 +2977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
@@ -2681,7 +2985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -2689,7 +2993,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -2697,7 +3001,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -2705,7 +3009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
@@ -2713,7 +3017,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -2721,7 +3025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
@@ -2729,7 +3033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2737,7 +3041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -2751,18 +3055,521 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086939A5-4206-46CA-8608-2BB7087BCBF1}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C9" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B12" t="s">
+        <v>675</v>
+      </c>
+      <c r="C12" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>676</v>
+      </c>
+      <c r="B13" t="s">
+        <v>677</v>
+      </c>
+      <c r="C13" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C14" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>679</v>
+      </c>
+      <c r="B15" t="s">
+        <v>680</v>
+      </c>
+      <c r="C15" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C16" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>683</v>
+      </c>
+      <c r="B17" t="s">
+        <v>684</v>
+      </c>
+      <c r="C17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>685</v>
+      </c>
+      <c r="B18" t="s">
+        <v>686</v>
+      </c>
+      <c r="C18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>687</v>
+      </c>
+      <c r="B19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C19" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>689</v>
+      </c>
+      <c r="B20" t="s">
+        <v>690</v>
+      </c>
+      <c r="C20" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>693</v>
+      </c>
+      <c r="B22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>695</v>
+      </c>
+      <c r="B23" t="s">
+        <v>696</v>
+      </c>
+      <c r="C23" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>697</v>
+      </c>
+      <c r="B24" t="s">
+        <v>698</v>
+      </c>
+      <c r="C24" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>701</v>
+      </c>
+      <c r="B26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C26" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>703</v>
+      </c>
+      <c r="C27" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>704</v>
+      </c>
+      <c r="B28" t="s">
+        <v>705</v>
+      </c>
+      <c r="C28" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>706</v>
+      </c>
+      <c r="B29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C29" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>605</v>
+      </c>
+      <c r="B30" t="s">
+        <v>709</v>
+      </c>
+      <c r="C30" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>710</v>
+      </c>
+      <c r="B31" t="s">
+        <v>711</v>
+      </c>
+      <c r="C31" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>609</v>
+      </c>
+      <c r="B32" t="s">
+        <v>712</v>
+      </c>
+      <c r="C32" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>713</v>
+      </c>
+      <c r="B33" t="s">
+        <v>714</v>
+      </c>
+      <c r="C33" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>715</v>
+      </c>
+      <c r="B34" t="s">
+        <v>716</v>
+      </c>
+      <c r="C34" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>717</v>
+      </c>
+      <c r="B35" t="s">
+        <v>720</v>
+      </c>
+      <c r="C35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>718</v>
+      </c>
+      <c r="B36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C36" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>719</v>
+      </c>
+      <c r="B37" t="s">
+        <v>722</v>
+      </c>
+      <c r="C37" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>723</v>
+      </c>
+      <c r="B38" t="s">
+        <v>725</v>
+      </c>
+      <c r="C38" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>724</v>
+      </c>
+      <c r="B39" t="s">
+        <v>726</v>
+      </c>
+      <c r="C39" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>727</v>
+      </c>
+      <c r="C40" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>732</v>
+      </c>
+      <c r="C41" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>728</v>
+      </c>
+      <c r="B42" t="s">
+        <v>733</v>
+      </c>
+      <c r="C42" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>729</v>
+      </c>
+      <c r="B43" t="s">
+        <v>734</v>
+      </c>
+      <c r="C43" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>730</v>
+      </c>
+      <c r="B44" t="s">
+        <v>731</v>
+      </c>
+      <c r="C44" t="s">
+        <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
@@ -2778,7 +3585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -2786,7 +3593,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +3601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>114</v>
       </c>
@@ -2802,7 +3609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2810,7 +3617,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2818,7 +3625,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>119</v>
       </c>
@@ -2826,7 +3633,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
@@ -2834,7 +3641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>123</v>
       </c>
@@ -2842,7 +3649,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>125</v>
       </c>
@@ -2850,7 +3657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>127</v>
       </c>
@@ -2858,7 +3665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2866,7 +3673,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>130</v>
       </c>
@@ -2874,7 +3681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>132</v>
       </c>
@@ -2882,7 +3689,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>134</v>
       </c>
@@ -2890,7 +3697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
@@ -2898,7 +3705,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>138</v>
       </c>
@@ -2906,7 +3713,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
@@ -2914,7 +3721,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>142</v>
       </c>
@@ -2922,7 +3729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>144</v>
       </c>
@@ -2930,7 +3737,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>146</v>
       </c>
@@ -2938,7 +3745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>148</v>
       </c>
@@ -2946,7 +3753,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>150</v>
       </c>
@@ -2954,7 +3761,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>152</v>
       </c>
@@ -2962,7 +3769,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>154</v>
       </c>
@@ -2970,7 +3777,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>156</v>
       </c>
@@ -2978,7 +3785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>158</v>
       </c>
@@ -2986,7 +3793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>160</v>
       </c>
@@ -2994,7 +3801,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>162</v>
       </c>
@@ -3002,7 +3809,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>164</v>
       </c>
@@ -3010,7 +3817,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>166</v>
       </c>
@@ -3018,7 +3825,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>168</v>
       </c>
@@ -3026,7 +3833,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>170</v>
       </c>
@@ -3034,7 +3841,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>172</v>
       </c>
@@ -3042,7 +3849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>174</v>
       </c>
@@ -3050,7 +3857,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>176</v>
       </c>
@@ -3058,7 +3865,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>178</v>
       </c>
@@ -3066,7 +3873,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>180</v>
       </c>
@@ -3074,7 +3881,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>182</v>
       </c>
@@ -3082,7 +3889,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>184</v>
       </c>
@@ -3090,7 +3897,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>186</v>
       </c>
@@ -3098,7 +3905,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>188</v>
       </c>
@@ -3106,7 +3913,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>190</v>
       </c>
@@ -3114,7 +3921,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>192</v>
       </c>
@@ -3122,7 +3929,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>194</v>
       </c>
@@ -3130,7 +3937,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>196</v>
       </c>
@@ -3138,7 +3945,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>198</v>
       </c>
@@ -3146,7 +3953,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>200</v>
       </c>
@@ -3154,7 +3961,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>202</v>
       </c>
@@ -3162,7 +3969,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>204</v>
       </c>
@@ -3170,7 +3977,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>206</v>
       </c>
@@ -3178,7 +3985,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>208</v>
       </c>
@@ -3186,7 +3993,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>210</v>
       </c>
@@ -3194,7 +4001,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>212</v>
       </c>
@@ -3202,7 +4009,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>214</v>
       </c>
@@ -3210,7 +4017,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>216</v>
       </c>
@@ -3218,7 +4025,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>218</v>
       </c>
@@ -3226,7 +4033,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>220</v>
       </c>
@@ -3234,7 +4041,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>222</v>
       </c>
@@ -3242,7 +4049,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>224</v>
       </c>
@@ -3250,7 +4057,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +4065,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>227</v>
       </c>
@@ -3266,7 +4073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>229</v>
       </c>
@@ -3274,7 +4081,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>231</v>
       </c>
@@ -3282,7 +4089,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>233</v>
       </c>
@@ -3290,7 +4097,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>235</v>
       </c>
@@ -3298,7 +4105,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>237</v>
       </c>
@@ -3306,7 +4113,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>239</v>
       </c>
@@ -3314,7 +4121,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>241</v>
       </c>
@@ -3322,7 +4129,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>243</v>
       </c>
@@ -3330,7 +4137,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>245</v>
       </c>
@@ -3338,7 +4145,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>247</v>
       </c>
@@ -3346,7 +4153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>249</v>
       </c>
@@ -3354,7 +4161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>251</v>
       </c>
@@ -3362,7 +4169,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>253</v>
       </c>
@@ -3370,7 +4177,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>255</v>
       </c>
@@ -3378,7 +4185,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>257</v>
       </c>
@@ -3386,7 +4193,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>259</v>
       </c>
@@ -3394,7 +4201,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>261</v>
       </c>
@@ -3402,7 +4209,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>263</v>
       </c>
@@ -3410,7 +4217,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>265</v>
       </c>
@@ -3418,7 +4225,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>267</v>
       </c>
@@ -3426,7 +4233,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>269</v>
       </c>
@@ -3434,7 +4241,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>271</v>
       </c>
@@ -3442,7 +4249,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>273</v>
       </c>
@@ -3450,7 +4257,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>275</v>
       </c>
@@ -3458,7 +4265,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>277</v>
       </c>
@@ -3466,7 +4273,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>279</v>
       </c>
@@ -3474,7 +4281,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>281</v>
       </c>
@@ -3482,7 +4289,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>283</v>
       </c>
@@ -3490,7 +4297,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>285</v>
       </c>
@@ -3498,7 +4305,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>287</v>
       </c>
@@ -3506,7 +4313,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>289</v>
       </c>
@@ -3514,7 +4321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>291</v>
       </c>
@@ -3522,7 +4329,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>293</v>
       </c>
@@ -3530,7 +4337,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>295</v>
       </c>
@@ -3538,7 +4345,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>297</v>
       </c>
@@ -3546,7 +4353,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>299</v>
       </c>
@@ -3554,7 +4361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>301</v>
       </c>
@@ -3562,7 +4369,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>303</v>
       </c>
@@ -3570,7 +4377,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>305</v>
       </c>
@@ -3578,7 +4385,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>307</v>
       </c>
@@ -3586,7 +4393,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>309</v>
       </c>
@@ -3594,7 +4401,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>311</v>
       </c>
@@ -3602,7 +4409,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>313</v>
       </c>
@@ -3610,7 +4417,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>315</v>
       </c>
@@ -3618,7 +4425,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>37</v>
       </c>
@@ -3626,7 +4433,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>318</v>
       </c>
@@ -3634,7 +4441,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>320</v>
       </c>
@@ -3642,7 +4449,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>322</v>
       </c>
@@ -3650,7 +4457,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>324</v>
       </c>
@@ -3658,7 +4465,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>9</v>
       </c>
@@ -3666,7 +4473,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>327</v>
       </c>
@@ -3674,7 +4481,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>329</v>
       </c>
@@ -3682,7 +4489,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>331</v>
       </c>
@@ -3690,7 +4497,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>333</v>
       </c>
@@ -3698,7 +4505,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>335</v>
       </c>
@@ -3706,7 +4513,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>337</v>
       </c>
@@ -3714,7 +4521,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>339</v>
       </c>
@@ -3722,7 +4529,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>341</v>
       </c>
@@ -3730,7 +4537,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>1</v>
       </c>
@@ -3738,7 +4545,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>344</v>
       </c>
@@ -3746,7 +4553,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>346</v>
       </c>
@@ -3754,7 +4561,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>348</v>
       </c>
@@ -3762,7 +4569,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>350</v>
       </c>
@@ -3770,7 +4577,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>352</v>
       </c>
@@ -3778,7 +4585,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>354</v>
       </c>
@@ -3786,7 +4593,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -3794,7 +4601,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>358</v>
       </c>
@@ -3802,7 +4609,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>360</v>
       </c>
@@ -3810,7 +4617,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>362</v>
       </c>
@@ -3818,7 +4625,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>364</v>
       </c>
@@ -3826,7 +4633,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>366</v>
       </c>
@@ -3834,7 +4641,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>107</v>
       </c>
@@ -3842,7 +4649,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>369</v>
       </c>
@@ -3850,7 +4657,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>371</v>
       </c>
@@ -3858,7 +4665,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>373</v>
       </c>
@@ -3866,7 +4673,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>375</v>
       </c>
@@ -3874,7 +4681,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>377</v>
       </c>
@@ -3882,7 +4689,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>379</v>
       </c>
@@ -3890,7 +4697,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>381</v>
       </c>
@@ -3898,7 +4705,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>383</v>
       </c>
@@ -3906,7 +4713,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>385</v>
       </c>
@@ -3914,7 +4721,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>387</v>
       </c>
@@ -3922,7 +4729,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>389</v>
       </c>
@@ -3930,7 +4737,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="147" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>391</v>
       </c>
@@ -3938,7 +4745,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>393</v>
       </c>
@@ -3946,7 +4753,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>395</v>
       </c>
@@ -3954,7 +4761,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>397</v>
       </c>
@@ -3962,7 +4769,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>399</v>
       </c>
@@ -3970,7 +4777,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>401</v>
       </c>
@@ -3978,7 +4785,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="153" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>403</v>
       </c>
@@ -3986,7 +4793,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="154" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>405</v>
       </c>
@@ -3994,7 +4801,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>407</v>
       </c>
@@ -4002,7 +4809,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>409</v>
       </c>
@@ -4010,7 +4817,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="157" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>411</v>
       </c>
@@ -4018,7 +4825,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="158" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>413</v>
       </c>
@@ -4026,7 +4833,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>415</v>
       </c>
@@ -4034,7 +4841,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>417</v>
       </c>
@@ -4042,7 +4849,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="161" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>419</v>
       </c>
@@ -4050,7 +4857,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>421</v>
       </c>
@@ -4058,7 +4865,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="163" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>423</v>
       </c>
@@ -4066,7 +4873,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>425</v>
       </c>
@@ -4074,7 +4881,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="165" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>427</v>
       </c>
@@ -4082,7 +4889,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="166" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>429</v>
       </c>
@@ -4090,7 +4897,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>431</v>
       </c>
@@ -4098,7 +4905,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="168" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>433</v>
       </c>
@@ -4106,7 +4913,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="169" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>435</v>
       </c>
@@ -4114,7 +4921,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>437</v>
       </c>
@@ -4122,7 +4929,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>439</v>
       </c>
@@ -4130,7 +4937,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>441</v>
       </c>
@@ -4138,7 +4945,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>443</v>
       </c>
@@ -4146,7 +4953,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="174" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>445</v>
       </c>
@@ -4154,7 +4961,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>447</v>
       </c>
@@ -4162,7 +4969,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="176" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>449</v>
       </c>
@@ -4170,7 +4977,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>451</v>
       </c>
@@ -4178,7 +4985,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>453</v>
       </c>
@@ -4186,7 +4993,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="179" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>455</v>
       </c>
@@ -4194,7 +5001,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="180" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>457</v>
       </c>
@@ -4202,7 +5009,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="181" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>459</v>
       </c>
@@ -4210,7 +5017,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>461</v>
       </c>
@@ -4218,7 +5025,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>463</v>
       </c>
@@ -4226,7 +5033,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>465</v>
       </c>
@@ -4234,7 +5041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="185" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>467</v>
       </c>
@@ -4242,7 +5049,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>469</v>
       </c>
@@ -4250,7 +5057,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="187" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>471</v>
       </c>
@@ -4258,7 +5065,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="188" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>473</v>
       </c>
@@ -4266,7 +5073,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="189" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>475</v>
       </c>
@@ -4274,7 +5081,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="190" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>477</v>
       </c>
@@ -4282,7 +5089,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="191" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>479</v>
       </c>
@@ -4290,7 +5097,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="192" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>481</v>
       </c>
@@ -4298,7 +5105,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>483</v>
       </c>
@@ -4306,7 +5113,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>485</v>
       </c>
@@ -4314,7 +5121,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>487</v>
       </c>
@@ -4322,7 +5129,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="196" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>489</v>
       </c>
@@ -4330,7 +5137,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="197" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>491</v>
       </c>
@@ -4338,7 +5145,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>493</v>
       </c>
@@ -4346,7 +5153,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>495</v>
       </c>
@@ -4354,7 +5161,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="200" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>497</v>
       </c>
@@ -4362,7 +5169,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="201" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>499</v>
       </c>
@@ -4370,7 +5177,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>501</v>
       </c>
@@ -4378,7 +5185,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>503</v>
       </c>
@@ -4386,7 +5193,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="204" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>505</v>
       </c>
@@ -4394,7 +5201,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="205" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>507</v>
       </c>
@@ -4402,7 +5209,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="206" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>509</v>
       </c>
@@ -4410,7 +5217,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>511</v>
       </c>
@@ -4418,7 +5225,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="208" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>513</v>
       </c>
@@ -4426,7 +5233,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="209" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>515</v>
       </c>
@@ -4434,7 +5241,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="210" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>517</v>
       </c>
@@ -4442,7 +5249,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="211" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>519</v>
       </c>
@@ -4450,7 +5257,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>521</v>
       </c>
@@ -4458,7 +5265,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="213" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>523</v>
       </c>
@@ -4466,7 +5273,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="214" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>525</v>
       </c>
@@ -4474,7 +5281,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="215" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>527</v>
       </c>
@@ -4482,7 +5289,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>529</v>
       </c>
@@ -4490,7 +5297,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="217" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>531</v>
       </c>
@@ -4498,7 +5305,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="218" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>59</v>
       </c>
@@ -4506,7 +5313,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="219" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>534</v>
       </c>
@@ -4514,7 +5321,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>536</v>
       </c>
@@ -4522,7 +5329,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="221" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>538</v>
       </c>
@@ -4530,7 +5337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>539</v>
       </c>
@@ -4538,7 +5345,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="223" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>541</v>
       </c>
@@ -4546,7 +5353,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>543</v>
       </c>
@@ -4554,7 +5361,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="225" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>545</v>
       </c>
@@ -4562,7 +5369,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="226" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>547</v>
       </c>
@@ -4570,7 +5377,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="227" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>549</v>
       </c>
@@ -4578,7 +5385,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="228" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>551</v>
       </c>
@@ -4586,7 +5393,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="229" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>553</v>
       </c>
@@ -4594,7 +5401,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="230" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>555</v>
       </c>
@@ -4602,7 +5409,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="231" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>557</v>
       </c>
@@ -4610,7 +5417,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>559</v>
       </c>
@@ -4618,7 +5425,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="233" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>561</v>
       </c>
@@ -4626,7 +5433,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="234" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>563</v>
       </c>
@@ -4634,7 +5441,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="235" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>565</v>
       </c>
@@ -4642,7 +5449,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="236" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>567</v>
       </c>
@@ -4650,7 +5457,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="237" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>569</v>
       </c>
@@ -4658,7 +5465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>570</v>
       </c>
@@ -4666,7 +5473,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="239" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>572</v>
       </c>
@@ -4674,7 +5481,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>574</v>
       </c>
@@ -4682,7 +5489,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="241" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>576</v>
       </c>
@@ -4690,7 +5497,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="242" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>578</v>
       </c>
@@ -4698,7 +5505,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="243" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>580</v>
       </c>
@@ -4706,7 +5513,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="244" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>108</v>
       </c>
@@ -4714,7 +5521,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="245" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>583</v>
       </c>
@@ -4722,7 +5529,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="246" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>585</v>
       </c>
@@ -4730,7 +5537,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>587</v>
       </c>
@@ -4738,7 +5545,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="248" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>589</v>
       </c>
@@ -4746,7 +5553,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="249" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>591</v>
       </c>
@@ -4754,7 +5561,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="250" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>593</v>
       </c>
@@ -4762,7 +5569,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="251" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>595</v>
       </c>
@@ -4770,7 +5577,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="252" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>597</v>
       </c>
@@ -4778,7 +5585,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="253" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>599</v>
       </c>
@@ -4786,7 +5593,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="254" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>601</v>
       </c>
@@ -4794,7 +5601,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>603</v>
       </c>
@@ -4802,7 +5609,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="256" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>605</v>
       </c>
@@ -4810,7 +5617,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="257" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>607</v>
       </c>
@@ -4818,7 +5625,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>609</v>
       </c>
@@ -4826,7 +5633,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>14</v>
       </c>
@@ -4834,7 +5641,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>612</v>
       </c>
@@ -4842,7 +5649,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="261" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>15</v>
       </c>
@@ -4850,7 +5657,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="262" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>615</v>
       </c>
@@ -4858,7 +5665,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="263" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>617</v>
       </c>
@@ -4866,7 +5673,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="264" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>619</v>
       </c>
@@ -4874,7 +5681,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="265" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>621</v>
       </c>
@@ -4882,7 +5689,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="266" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>623</v>
       </c>
@@ -4890,7 +5697,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="267" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>625</v>
       </c>
@@ -4898,7 +5705,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="268" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>627</v>
       </c>
@@ -4906,7 +5713,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="269" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>629</v>
       </c>
@@ -4914,7 +5721,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="270" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>631</v>
       </c>
@@ -4922,7 +5729,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="271" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>633</v>
       </c>
@@ -4930,7 +5737,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="272" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>635</v>
       </c>
@@ -4943,18 +5750,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4962,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>637</v>
       </c>
@@ -4970,7 +5777,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>132</v>
       </c>
@@ -4978,7 +5785,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>218</v>
       </c>
@@ -4986,7 +5793,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>640</v>
       </c>
@@ -4994,7 +5801,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>642</v>
       </c>
@@ -5002,7 +5809,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>366</v>
       </c>
@@ -5010,7 +5817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>644</v>
       </c>
@@ -5018,7 +5825,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>583</v>
       </c>
@@ -5026,7 +5833,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>647</v>
       </c>
@@ -5034,7 +5841,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>649</v>
       </c>
@@ -5042,7 +5849,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>103</v>
       </c>
